--- a/data/factor_data/regression_stats/stats_7CD.F.xlsx
+++ b/data/factor_data/regression_stats/stats_7CD.F.xlsx
@@ -438,22 +438,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.004728605547377812</v>
+        <v>-0.004356580082775226</v>
       </c>
       <c r="C2">
-        <v>-3.759807995717789</v>
+        <v>-3.363500456792285</v>
       </c>
       <c r="D2">
-        <v>-0.004779512777555488</v>
+        <v>-0.004355782814886874</v>
       </c>
       <c r="E2">
-        <v>-3.802551213822455</v>
+        <v>-3.361901452928167</v>
       </c>
       <c r="F2">
-        <v>-0.004782816823658534</v>
+        <v>-0.00440610386294413</v>
       </c>
       <c r="G2">
-        <v>-3.804341211221376</v>
+        <v>-3.435166637141442</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,22 +461,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6922341109350461</v>
+        <v>0.6750587646017798</v>
       </c>
       <c r="C3">
-        <v>4.159326888105378</v>
+        <v>4.073223028613094</v>
       </c>
       <c r="D3">
-        <v>0.7136682185713198</v>
+        <v>0.688616931600906</v>
       </c>
       <c r="E3">
-        <v>4.212527614297169</v>
+        <v>4.091415692989363</v>
       </c>
       <c r="F3">
-        <v>0.7018252997144714</v>
+        <v>0.6981340933746503</v>
       </c>
       <c r="G3">
-        <v>3.9956623992972</v>
+        <v>4.043673751637558</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>-0.2032177684398812</v>
+        <v>-0.1799854801216152</v>
       </c>
       <c r="E4">
-        <v>-0.8788426360694639</v>
+        <v>-0.7909070996076963</v>
       </c>
       <c r="F4">
-        <v>-0.2053159844120142</v>
+        <v>-0.1275671484233576</v>
       </c>
       <c r="G4">
-        <v>-0.8801630983974789</v>
+        <v>-0.5378684081711061</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-0.008225721486924908</v>
+        <v>0.03154248455602873</v>
       </c>
       <c r="E5">
-        <v>-0.05633653074520346</v>
+        <v>0.2155701401817285</v>
       </c>
       <c r="F5">
-        <v>0.002267017596933318</v>
+        <v>-0.05779875313594846</v>
       </c>
       <c r="G5">
-        <v>0.01136922168450914</v>
+        <v>-0.2827445553307274</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0.1252074981239922</v>
+        <v>0.2251718689540274</v>
       </c>
       <c r="G6">
-        <v>0.3398542479959445</v>
+        <v>0.6062339008088979</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>-0.1444811400384136</v>
+        <v>0.1872216187614784</v>
       </c>
       <c r="G7">
-        <v>-0.2671589905894939</v>
+        <v>0.3232717335255246</v>
       </c>
     </row>
   </sheetData>
